--- a/data/trans_bre/P2A_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Clase-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna condición</t>
+          <t>Hogares que tienen personas con alguna condición, enfermedad crónica o limitación</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 13,17</t>
+          <t>-0,36; 14,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 10,66</t>
+          <t>-4,78; 10,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 13,45</t>
+          <t>-1,19; 15,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 8,11</t>
+          <t>-4,3; 7,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 32,3</t>
+          <t>-0,76; 34,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 22,4</t>
+          <t>-8,96; 21,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 31,32</t>
+          <t>-2,87; 35,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 23,42</t>
+          <t>-10,6; 21,47</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 15,12</t>
+          <t>-0,52; 14,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 18,09</t>
+          <t>1,24; 17,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 9,2</t>
+          <t>-5,6; 9,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 6,88</t>
+          <t>-4,67; 7,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 36,18</t>
+          <t>-1,13; 33,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 36,5</t>
+          <t>2,21; 35,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 20,37</t>
+          <t>-10,42; 20,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 22,53</t>
+          <t>-12,02; 23,24</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 22,23</t>
+          <t>4,12; 21,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,92; 19,03</t>
+          <t>4,4; 18,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 16,35</t>
+          <t>-0,87; 16,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,0; 46,2</t>
+          <t>7,42; 44,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,03; 48,89</t>
+          <t>7,89; 44,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,97; 33,36</t>
+          <t>7,07; 32,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 29,65</t>
+          <t>-1,39; 28,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,83; 495,72</t>
+          <t>17,47; 431,43</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 14,14</t>
+          <t>4,78; 13,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 11,16</t>
+          <t>1,7; 11,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 6,04</t>
+          <t>-3,28; 6,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 32,44</t>
+          <t>-2,51; 33,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,92; 27,51</t>
+          <t>8,72; 26,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,88; 19,5</t>
+          <t>2,77; 19,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 11,44</t>
+          <t>-5,72; 11,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 78,5</t>
+          <t>-5,67; 85,0</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,14; 18,75</t>
+          <t>5,96; 19,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,62; 21,53</t>
+          <t>10,38; 21,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,74; 22,0</t>
+          <t>11,01; 22,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 7,21</t>
+          <t>-14,38; 7,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,63; 38,05</t>
+          <t>10,8; 41,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,09; 39,06</t>
+          <t>16,81; 39,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,41; 41,03</t>
+          <t>18,56; 41,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-27,17; 15,19</t>
+          <t>-27,25; 15,4</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>36,6; 47,81</t>
+          <t>36,85; 48,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>28,68; 41,66</t>
+          <t>29,29; 42,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,56; 41,58</t>
+          <t>27,59; 40,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,29; 34,56</t>
+          <t>14,31; 35,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>114,84; 211,77</t>
+          <t>111,36; 210,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>64,67; 128,61</t>
+          <t>66,72; 131,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>72,11; 142,56</t>
+          <t>67,65; 136,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>34,91; 183,69</t>
+          <t>40,39; 197,67</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,87; 17,98</t>
+          <t>13,23; 17,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,2; 16,2</t>
+          <t>11,27; 16,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,87; 13,61</t>
+          <t>8,89; 13,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,74; 21,45</t>
+          <t>4,62; 22,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,09; 38,35</t>
+          <t>26,66; 38,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,74; 29,89</t>
+          <t>19,74; 29,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,64; 27,14</t>
+          <t>16,62; 26,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,63; 66,97</t>
+          <t>11,81; 75,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
